--- a/data/Solv008.xlsx
+++ b/data/Solv008.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\studieboeken\learnexcel\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE49793-0AD5-4849-851E-67A4E5185B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="28635" windowHeight="12585"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>Coevorden</t>
   </si>
@@ -44,9 +63,6 @@
   </si>
   <si>
     <t>City</t>
-  </si>
-  <si>
-    <t>Toaal</t>
   </si>
   <si>
     <t>transport</t>
@@ -79,14 +95,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_ &quot;€&quot;\ * #,##0_ ;_ &quot;€&quot;\ * \-#,##0_ ;_ &quot;€&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="_-&quot;€&quot;\ * #,##0_-;_-&quot;€&quot;\ * #,##0\-;_-&quot;€&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0_-;_-* #,##0\-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-&quot;fl&quot;\ * #,##0_-;_-&quot;fl&quot;\ * #,##0\-;_-&quot;fl&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;€&quot;\ * #,##0_ ;_ &quot;€&quot;\ * \-#,##0_ ;_ &quot;€&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;€&quot;\ * #,##0_-;_-&quot;€&quot;\ * #,##0\-;_-&quot;€&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;_-* #,##0\-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-&quot;fl&quot;\ * #,##0_-;_-&quot;fl&quot;\ * #,##0\-;_-&quot;fl&quot;\ * &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -303,10 +319,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -316,7 +332,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -337,7 +352,7 @@
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -346,10 +361,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -391,7 +406,6 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -411,25 +425,24 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="2" builtinId="7"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Komma [0]" xfId="1" builtinId="6"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Valuta [0]" xfId="2" builtinId="7"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -437,14 +450,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -482,7 +498,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -554,7 +570,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -727,22 +743,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AH45" sqref="AH45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="5"/>
-    <col min="2" max="2" width="15" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.33203125" style="5"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="11.25" x14ac:dyDescent="0.2">
@@ -762,16 +778,16 @@
     </row>
     <row r="3" spans="2:8" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="45">
+      <c r="D3" s="43">
         <v>100</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="43">
         <v>87</v>
       </c>
-      <c r="F3" s="46">
+      <c r="F3" s="44">
         <v>46</v>
       </c>
       <c r="G3" s="1"/>
@@ -779,16 +795,16 @@
     </row>
     <row r="4" spans="2:8" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="43">
         <v>164</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="43">
         <v>62</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="44">
         <v>115</v>
       </c>
       <c r="G4" s="1"/>
@@ -796,16 +812,16 @@
     </row>
     <row r="5" spans="2:8" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="47">
+      <c r="D5" s="43">
         <v>38</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E5" s="43">
         <v>128</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="44">
         <v>28</v>
       </c>
       <c r="G5" s="1"/>
@@ -813,16 +829,16 @@
     </row>
     <row r="6" spans="2:8" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="43">
         <v>57</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="43">
         <v>121</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="44">
         <v>30</v>
       </c>
       <c r="G6" s="1"/>
@@ -830,16 +846,16 @@
     </row>
     <row r="7" spans="2:8" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="43">
         <v>108</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="43">
         <v>58</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="44">
         <v>47</v>
       </c>
       <c r="G7" s="1"/>
@@ -847,16 +863,16 @@
     </row>
     <row r="8" spans="2:8" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="48">
+      <c r="D8" s="45">
         <v>83</v>
       </c>
-      <c r="E8" s="48">
+      <c r="E8" s="45">
         <v>149</v>
       </c>
-      <c r="F8" s="49">
+      <c r="F8" s="46">
         <v>66</v>
       </c>
       <c r="G8" s="1"/>
@@ -872,132 +888,132 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="2:8" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="2:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="B11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="14"/>
-    </row>
-    <row r="11" spans="2:8" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="B11" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="19" t="s">
-        <v>11</v>
+      <c r="G11" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="2:8" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="20">
         <v>225</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="23"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="2:8" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="20">
         <v>120</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="24"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="23"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="2:8" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="20">
         <v>150</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="24"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="23"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="2:8" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="20">
         <v>100</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="24"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="23"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="2:8" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="20">
         <v>150</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="24"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="23"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="2:8" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="25">
         <v>250</v>
       </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="29"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="28"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="2:8" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="B18" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="26">
+      <c r="B18" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="25">
         <f>SUM(C12:C17)</f>
         <v>995</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="32"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="1"/>
     </row>
     <row r="19" spans="2:8" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
@@ -1009,32 +1025,32 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="2:8" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="32"/>
+      <c r="D20" s="33">
+        <v>500</v>
+      </c>
+      <c r="E20" s="33">
+        <v>400</v>
+      </c>
+      <c r="F20" s="34">
+        <v>350</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="2:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="B21" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="35">
-        <v>500</v>
-      </c>
-      <c r="E20" s="35">
-        <v>400</v>
-      </c>
-      <c r="F20" s="36">
-        <v>350</v>
-      </c>
-      <c r="G20" s="32"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="2:8" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="B21" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="40"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="38"/>
     </row>
     <row r="22" spans="2:8" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
@@ -1046,16 +1062,16 @@
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="2:8" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="40"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="42" t="s">
         <v>18</v>
-      </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="44" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
